--- a/WMM_All_configurations/MCBXFB_02_Outer_Collar_600_20210510/Summary_MM_MCBXFB_02_Outer_Collar_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Outer_Collar_600_20210510/Summary_MM_MCBXFB_02_Outer_Collar_600_20210510.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0003028910643335496</v>
+        <v>0.0003028910643334947</v>
       </c>
       <c r="C4">
-        <v>0.0004361062633327254</v>
+        <v>0.000436106263332765</v>
       </c>
       <c r="D4">
-        <v>0.001102927544236787</v>
+        <v>0.001102927544236817</v>
       </c>
       <c r="E4">
-        <v>-2.444577681566633E-05</v>
+        <v>-2.444577681576392E-05</v>
       </c>
       <c r="F4">
-        <v>0.001255712903674592</v>
+        <v>0.001255712903674473</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005847896825570986</v>
+        <v>0.0005847896825570434</v>
       </c>
       <c r="C5">
-        <v>0.0001994390116558403</v>
+        <v>0.000199439011655766</v>
       </c>
       <c r="D5">
-        <v>-0.0001812516186547446</v>
+        <v>-0.0001812516186547985</v>
       </c>
       <c r="E5">
-        <v>0.0006858727125700812</v>
+        <v>0.00068587271257003</v>
       </c>
       <c r="F5">
-        <v>0.000244963137759291</v>
+        <v>0.0002449631377592407</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -630,7 +630,7 @@
         <v>3.459111862244395E-05</v>
       </c>
       <c r="D8">
-        <v>3.494731659332059E-05</v>
+        <v>3.494731659332015E-05</v>
       </c>
       <c r="E8">
         <v>3.461641541587261E-05</v>
@@ -647,10 +647,10 @@
         <v>-1.655721840780632</v>
       </c>
       <c r="C9">
-        <v>0.3485544464971186</v>
+        <v>0.3485544464971184</v>
       </c>
       <c r="D9">
-        <v>1.070914692675538</v>
+        <v>1.070914692675539</v>
       </c>
       <c r="E9">
         <v>1.501573233666947</v>
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.2260275262427441</v>
+        <v>-0.2260275262427438</v>
       </c>
       <c r="C11">
-        <v>-0.2171264123449372</v>
+        <v>-0.2171264123449374</v>
       </c>
       <c r="D11">
-        <v>-0.2137313394331525</v>
+        <v>-0.2137313394331523</v>
       </c>
       <c r="E11">
-        <v>-0.1177171833631786</v>
+        <v>-0.1177171833631785</v>
       </c>
       <c r="F11">
-        <v>-0.03570956107663652</v>
+        <v>-0.03570956107663673</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,16 +704,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.18361522886854</v>
+        <v>7.183615228868542</v>
       </c>
       <c r="C12">
-        <v>1.469742231027433</v>
+        <v>1.469742231027434</v>
       </c>
       <c r="D12">
         <v>1.140489881099531</v>
       </c>
       <c r="E12">
-        <v>1.375734393980521</v>
+        <v>1.375734393980522</v>
       </c>
       <c r="F12">
         <v>1.563456023700813</v>
@@ -724,16 +724,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1436832229852811</v>
+        <v>-0.1436832229852812</v>
       </c>
       <c r="C13">
-        <v>-0.213599270989122</v>
+        <v>-0.2135992709891218</v>
       </c>
       <c r="D13">
-        <v>-0.2500210138594492</v>
+        <v>-0.2500210138594487</v>
       </c>
       <c r="E13">
-        <v>-0.1724084314557362</v>
+        <v>-0.1724084314557361</v>
       </c>
       <c r="F13">
         <v>-0.2147751226682841</v>
@@ -750,7 +750,7 @@
         <v>4.534911665902664</v>
       </c>
       <c r="D14">
-        <v>4.633856183512827</v>
+        <v>4.633856183512828</v>
       </c>
       <c r="E14">
         <v>4.566595554658486</v>
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.06964745892630705</v>
+        <v>-0.06964745892630701</v>
       </c>
       <c r="C15">
-        <v>-0.09171121446268363</v>
+        <v>-0.09171121446268324</v>
       </c>
       <c r="D15">
-        <v>-0.08980684038600639</v>
+        <v>-0.08980684038600628</v>
       </c>
       <c r="E15">
-        <v>-0.09965068682388101</v>
+        <v>-0.09965068682388095</v>
       </c>
       <c r="F15">
-        <v>-0.1144059688386867</v>
+        <v>-0.1144059688386866</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.100118410073313</v>
+        <v>1.100118410073314</v>
       </c>
       <c r="C16">
         <v>1.16245195384249</v>
@@ -793,7 +793,7 @@
         <v>1.15741839350241</v>
       </c>
       <c r="E16">
-        <v>1.176031207897384</v>
+        <v>1.176031207897383</v>
       </c>
       <c r="F16">
         <v>1.169505427935799</v>
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01515110684189392</v>
+        <v>0.01515110684189452</v>
       </c>
       <c r="C17">
-        <v>0.000837583663553413</v>
+        <v>0.0008375836635533575</v>
       </c>
       <c r="D17">
-        <v>0.006762133757860823</v>
+        <v>0.006762133757860266</v>
       </c>
       <c r="E17">
-        <v>0.006964178982689884</v>
+        <v>0.006964178982689549</v>
       </c>
       <c r="F17">
-        <v>0.01249894265547144</v>
+        <v>0.01249894265547084</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1129715592654109</v>
+        <v>-0.1129715592654107</v>
       </c>
       <c r="C18">
-        <v>-0.07237601283997086</v>
+        <v>-0.07237601283997017</v>
       </c>
       <c r="D18">
-        <v>-0.07729436521041133</v>
+        <v>-0.07729436521041172</v>
       </c>
       <c r="E18">
-        <v>-0.07854765415839185</v>
+        <v>-0.07854765415839104</v>
       </c>
       <c r="F18">
-        <v>-0.08897210188563937</v>
+        <v>-0.08897210188563845</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.003274644088003091</v>
+        <v>-0.003274644088005811</v>
       </c>
       <c r="C19">
-        <v>-0.01119197165565118</v>
+        <v>-0.01119197165565017</v>
       </c>
       <c r="D19">
-        <v>0.05606664521192582</v>
+        <v>0.05606664521192392</v>
       </c>
       <c r="E19">
-        <v>0.01487172143671002</v>
+        <v>0.01487172143671045</v>
       </c>
       <c r="F19">
-        <v>-0.01613829533176415</v>
+        <v>-0.0161382953317618</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01608265114070703</v>
+        <v>0.01608265114071207</v>
       </c>
       <c r="C20">
-        <v>-0.2720301417115523</v>
+        <v>-0.2720301417115394</v>
       </c>
       <c r="D20">
-        <v>-0.1806724710233036</v>
+        <v>-0.1806724710233127</v>
       </c>
       <c r="E20">
-        <v>-0.1923687507333235</v>
+        <v>-0.1923687507333338</v>
       </c>
       <c r="F20">
-        <v>-0.2623034243760403</v>
+        <v>-0.262303424376044</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.03440457928116484</v>
+        <v>-0.03440457928116057</v>
       </c>
       <c r="C21">
-        <v>-0.0202226679453042</v>
+        <v>-0.02022266794530415</v>
       </c>
       <c r="D21">
-        <v>-0.01947884215303713</v>
+        <v>-0.01947884215303555</v>
       </c>
       <c r="E21">
-        <v>-0.04537916669739761</v>
+        <v>-0.04537916669739953</v>
       </c>
       <c r="F21">
-        <v>0.004153543918100421</v>
+        <v>0.004153543918099488</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.004882234576535511</v>
+        <v>-0.004882234576534862</v>
       </c>
       <c r="C22">
-        <v>-0.002861319088229578</v>
+        <v>-0.002861319088227897</v>
       </c>
       <c r="D22">
-        <v>0.01049597863084312</v>
+        <v>0.010495978630842</v>
       </c>
       <c r="E22">
-        <v>0.02978363634432165</v>
+        <v>0.02978363634432111</v>
       </c>
       <c r="F22">
-        <v>0.006912701908931743</v>
+        <v>0.006912701908932228</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -932,13 +932,13 @@
         <v>2.764715539838036E-19</v>
       </c>
       <c r="C24">
-        <v>2.439454888092385E-19</v>
+        <v>2.656295322589486E-19</v>
       </c>
       <c r="D24">
-        <v>4.119968255444917E-19</v>
+        <v>4.824699667560495E-19</v>
       </c>
       <c r="E24">
-        <v>2.818925648462312E-19</v>
+        <v>2.764715539838036E-19</v>
       </c>
       <c r="F24">
         <v>4.119968255444917E-19</v>
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>-0.8855454968052323</v>
+        <v>-0.8855454968052319</v>
       </c>
       <c r="C25">
         <v>0.4322572451680576</v>
       </c>
       <c r="D25">
-        <v>0.8330822066826947</v>
+        <v>0.8330822066826948</v>
       </c>
       <c r="E25">
-        <v>0.4221996447285233</v>
+        <v>0.4221996447285237</v>
       </c>
       <c r="F25">
-        <v>-0.09637820905112457</v>
+        <v>-0.09637820905112468</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,16 +969,16 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>-0.3509457573030056</v>
+        <v>-0.3509457573030054</v>
       </c>
       <c r="C26">
         <v>1.05961217147339</v>
       </c>
       <c r="D26">
-        <v>0.994453662961317</v>
+        <v>0.9944536629613194</v>
       </c>
       <c r="E26">
-        <v>0.06154505766591434</v>
+        <v>0.06154505766591475</v>
       </c>
       <c r="F26">
         <v>0.2357981257637151</v>
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-0.3892132741352105</v>
+        <v>-0.3892132741352103</v>
       </c>
       <c r="C27">
-        <v>-0.5253112775612566</v>
+        <v>-0.5253112775612565</v>
       </c>
       <c r="D27">
-        <v>-0.3338691070248611</v>
+        <v>-0.3338691070248608</v>
       </c>
       <c r="E27">
-        <v>-0.1450264334326967</v>
+        <v>-0.1450264334326964</v>
       </c>
       <c r="F27">
-        <v>0.1534179810829664</v>
+        <v>0.1534179810829665</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>0.1008624750279817</v>
+        <v>0.100862475027982</v>
       </c>
       <c r="C28">
-        <v>0.01700496685104632</v>
+        <v>0.01700496685104651</v>
       </c>
       <c r="D28">
-        <v>-0.09836538640126857</v>
+        <v>-0.09836538640126886</v>
       </c>
       <c r="E28">
-        <v>-0.0750116896454783</v>
+        <v>-0.07501168964547789</v>
       </c>
       <c r="F28">
-        <v>-0.04646492589843058</v>
+        <v>-0.04646492589843055</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,19 +1029,19 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.7420598497358831</v>
+        <v>0.7420598497358832</v>
       </c>
       <c r="C29">
-        <v>0.8194732798575001</v>
+        <v>0.8194732798574998</v>
       </c>
       <c r="D29">
-        <v>0.8332180333023403</v>
+        <v>0.8332180333023408</v>
       </c>
       <c r="E29">
-        <v>0.7703807178637201</v>
+        <v>0.7703807178637203</v>
       </c>
       <c r="F29">
-        <v>0.8013071644662727</v>
+        <v>0.8013071644662724</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.02919382553582413</v>
+        <v>0.02919382553582402</v>
       </c>
       <c r="C30">
-        <v>-0.05511249357977619</v>
+        <v>-0.05511249357977643</v>
       </c>
       <c r="D30">
-        <v>-0.04931897917802548</v>
+        <v>-0.04931897917802667</v>
       </c>
       <c r="E30">
-        <v>-0.06353454547144598</v>
+        <v>-0.06353454547144582</v>
       </c>
       <c r="F30">
-        <v>-0.0460995960391252</v>
+        <v>-0.04609959603912547</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>-0.02584975185598328</v>
+        <v>-0.02584975185598272</v>
       </c>
       <c r="C31">
-        <v>0.03019440633651602</v>
+        <v>0.03019440633651594</v>
       </c>
       <c r="D31">
-        <v>0.06451476116767496</v>
+        <v>0.0645147611676752</v>
       </c>
       <c r="E31">
-        <v>0.1432847460283137</v>
+        <v>0.1432847460283142</v>
       </c>
       <c r="F31">
-        <v>0.1937420304585141</v>
+        <v>0.1937420304585143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-0.04442724914373088</v>
+        <v>-0.04442724914373083</v>
       </c>
       <c r="C32">
-        <v>-0.03109041942373749</v>
+        <v>-0.03109041942373769</v>
       </c>
       <c r="D32">
-        <v>-0.04508308079466122</v>
+        <v>-0.04508308079466131</v>
       </c>
       <c r="E32">
-        <v>-0.0385949310574689</v>
+        <v>-0.03859493105746882</v>
       </c>
       <c r="F32">
-        <v>-0.02810122281909388</v>
+        <v>-0.02810122281909384</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.01659590520328773</v>
+        <v>0.01659590520328846</v>
       </c>
       <c r="C33">
-        <v>0.009466924712502486</v>
+        <v>0.009466924712502673</v>
       </c>
       <c r="D33">
-        <v>0.003163073442578924</v>
+        <v>0.003163073442579272</v>
       </c>
       <c r="E33">
-        <v>-0.01084548158279519</v>
+        <v>-0.01084548158279516</v>
       </c>
       <c r="F33">
-        <v>-0.01694410418461293</v>
+        <v>-0.01694410418461246</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.01482559140178384</v>
+        <v>0.01482559140178595</v>
       </c>
       <c r="C34">
-        <v>0.03685153735360837</v>
+        <v>0.03685153735360851</v>
       </c>
       <c r="D34">
-        <v>0.01592563235710586</v>
+        <v>0.01592563235710622</v>
       </c>
       <c r="E34">
-        <v>0.009712599808764195</v>
+        <v>0.009712599808763983</v>
       </c>
       <c r="F34">
-        <v>0.02663598661656095</v>
+        <v>0.02663598661656242</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.009389909624024084</v>
+        <v>0.009389909624025319</v>
       </c>
       <c r="C35">
-        <v>-0.01608967290379132</v>
+        <v>-0.01608967290379043</v>
       </c>
       <c r="D35">
-        <v>0.002372644847153896</v>
+        <v>0.002372644847154534</v>
       </c>
       <c r="E35">
-        <v>-0.01472288225133833</v>
+        <v>-0.01472288225133793</v>
       </c>
       <c r="F35">
-        <v>0.04162743704005779</v>
+        <v>0.04162743704005625</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.02871709464197033</v>
+        <v>0.02871709464197418</v>
       </c>
       <c r="C36">
-        <v>0.1715046546672474</v>
+        <v>0.17150465466724</v>
       </c>
       <c r="D36">
-        <v>0.2043182832748186</v>
+        <v>0.2043182832748237</v>
       </c>
       <c r="E36">
-        <v>0.159013432861891</v>
+        <v>0.159013432861872</v>
       </c>
       <c r="F36">
-        <v>0.1946817611293728</v>
+        <v>0.1946817611293598</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>-0.004615358045238295</v>
+        <v>-0.004615358045240821</v>
       </c>
       <c r="C37">
-        <v>0.03286758904280605</v>
+        <v>0.03286758904280548</v>
       </c>
       <c r="D37">
-        <v>0.03733673059143926</v>
+        <v>0.03733673059143806</v>
       </c>
       <c r="E37">
-        <v>0.02748303189179314</v>
+        <v>0.02748303189179159</v>
       </c>
       <c r="F37">
-        <v>0.01438874233939341</v>
+        <v>0.01438874233939224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>-0.005139250903656016</v>
+        <v>-0.005139250903655416</v>
       </c>
       <c r="C38">
-        <v>-0.02525140483091246</v>
+        <v>-0.02525140483091124</v>
       </c>
       <c r="D38">
-        <v>-0.0206094738022524</v>
+        <v>-0.02060947380225229</v>
       </c>
       <c r="E38">
-        <v>-0.02028231828549054</v>
+        <v>-0.02028231828549121</v>
       </c>
       <c r="F38">
-        <v>-0.02365917858561151</v>
+        <v>-0.02365917858561302</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1260,7 +1260,7 @@
         <v>0.03459111862244395</v>
       </c>
       <c r="D41">
-        <v>0.03494731659332059</v>
+        <v>0.03494731659332015</v>
       </c>
       <c r="E41">
         <v>0.03461641541587261</v>
@@ -1280,7 +1280,7 @@
         <v>0.00691822372448879</v>
       </c>
       <c r="D42">
-        <v>0.006989463318664117</v>
+        <v>0.00698946331866403</v>
       </c>
       <c r="E42">
         <v>0.006923283083174523</v>
@@ -1294,19 +1294,19 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>0.1974629393875366</v>
+        <v>0.1974629393875371</v>
       </c>
       <c r="C43">
-        <v>0.1993765027606076</v>
+        <v>0.1993765027606081</v>
       </c>
       <c r="D43">
-        <v>0.2014295588210071</v>
+        <v>0.2014295588210052</v>
       </c>
       <c r="E43">
-        <v>0.1995223085745194</v>
+        <v>0.1995223085745199</v>
       </c>
       <c r="F43">
-        <v>0.2022086904563292</v>
+        <v>0.2022086904563297</v>
       </c>
     </row>
   </sheetData>
